--- a/Team-Data/2007-08/12-1-2007-08.xlsx
+++ b/Team-Data/2007-08/12-1-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -780,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>13</v>
@@ -792,13 +859,13 @@
         <v>29</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>26</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -810,16 +877,16 @@
         <v>27</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -956,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
         <v>14</v>
@@ -974,13 +1041,13 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -992,13 +1059,13 @@
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>9</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.429</v>
       </c>
       <c r="H4" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>79.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.439</v>
+        <v>0.436</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.379</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.674</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>41.7</v>
+        <v>42.9</v>
       </c>
       <c r="U4" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V4" t="n">
         <v>17.1</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,52 +1163,52 @@
         <v>6.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.9</v>
+        <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>16</v>
@@ -1153,37 +1220,37 @@
         <v>3</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.286</v>
+        <v>0.231</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.1</v>
+        <v>33.3</v>
       </c>
       <c r="J5" t="n">
-        <v>85.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.303</v>
+        <v>0.29</v>
       </c>
       <c r="O5" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.716</v>
+        <v>0.704</v>
       </c>
       <c r="R5" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="S5" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>44.4</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.1</v>
       </c>
       <c r="X5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.5</v>
+        <v>86.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-6.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
         <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1317,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
@@ -1329,22 +1396,22 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
         <v>8</v>
@@ -1356,7 +1423,7 @@
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>18</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>-3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
         <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>14</v>
       </c>
       <c r="AJ6" t="n">
         <v>8</v>
@@ -1499,31 +1566,31 @@
         <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
@@ -1532,22 +1599,22 @@
         <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
         <v>26</v>
       </c>
       <c r="BB6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.647</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J7" t="n">
-        <v>80.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.464</v>
       </c>
       <c r="L7" t="n">
         <v>5.6</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O7" t="n">
         <v>22.9</v>
@@ -1615,76 +1682,76 @@
         <v>27.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.839</v>
+        <v>0.834</v>
       </c>
       <c r="R7" t="n">
         <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V7" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="W7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.5</v>
+        <v>102.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
         <v>8</v>
       </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>10</v>
-      </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>4</v>
@@ -1702,22 +1769,22 @@
         <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
         <v>9</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>22</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>5</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1887,10 +1954,10 @@
         <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,10 +1969,10 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.667</v>
+        <v>0.643</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>80.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.471</v>
+        <v>0.467</v>
       </c>
       <c r="L9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.353</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P9" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.724</v>
+        <v>0.713</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U9" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="V9" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2003,97 +2070,97 @@
         <v>5.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
         <v>5</v>
       </c>
       <c r="AG9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
         <v>6</v>
       </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT9" t="n">
         <v>22</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>4</v>
       </c>
       <c r="AV9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>14</v>
@@ -2209,10 +2276,10 @@
         <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,19 +2297,19 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS10" t="n">
         <v>23</v>
@@ -2254,7 +2321,7 @@
         <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2266,7 +2333,7 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.529</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J11" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L11" t="n">
         <v>6.1</v>
       </c>
       <c r="M11" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.311</v>
+        <v>0.312</v>
       </c>
       <c r="O11" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.732</v>
+        <v>0.723</v>
       </c>
       <c r="R11" t="n">
         <v>12.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>4.8</v>
@@ -2370,49 +2437,49 @@
         <v>4.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>23</v>
@@ -2421,40 +2488,40 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>16</v>
@@ -2579,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
         <v>3</v>
@@ -2603,10 +2670,10 @@
         <v>14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2618,28 +2685,28 @@
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2813,22 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
         <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
@@ -2770,22 +2837,22 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2794,10 +2861,10 @@
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2806,7 +2873,7 @@
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>4.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
@@ -2940,16 +3007,16 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2958,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="n">
         <v>16</v>
@@ -2976,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -2991,19 +3058,19 @@
         <v>22</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -3032,88 +3099,88 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>80.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L15" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.401</v>
+        <v>0.396</v>
       </c>
       <c r="O15" t="n">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="P15" t="n">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="R15" t="n">
         <v>9.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42.1</v>
+        <v>41.5</v>
       </c>
       <c r="U15" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="V15" t="n">
         <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>104.5</v>
+        <v>104.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
@@ -3122,70 +3189,70 @@
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>9</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>10</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX15" t="n">
         <v>15</v>
       </c>
-      <c r="AW15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>7</v>
-      </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB15" t="n">
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -3292,40 +3359,40 @@
         <v>-3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3337,7 +3404,7 @@
         <v>30</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,28 +3413,28 @@
         <v>27</v>
       </c>
       <c r="AV16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW16" t="n">
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB16" t="n">
         <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -3396,106 +3463,106 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>79</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.466</v>
+        <v>0.46</v>
       </c>
       <c r="L17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M17" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.729</v>
+        <v>0.748</v>
       </c>
       <c r="R17" t="n">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>41.6</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>20</v>
       </c>
-      <c r="AE17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>23</v>
-      </c>
       <c r="AK17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>27</v>
@@ -3507,25 +3574,25 @@
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS17" t="n">
         <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
         <v>10</v>
@@ -3534,22 +3601,22 @@
         <v>25</v>
       </c>
       <c r="AX17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>0.133</v>
+        <v>0.143</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>81.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.445</v>
+        <v>0.45</v>
       </c>
       <c r="L18" t="n">
         <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.363</v>
+        <v>0.372</v>
       </c>
       <c r="O18" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="P18" t="n">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="R18" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S18" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="T18" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W18" t="n">
         <v>7.7</v>
       </c>
       <c r="X18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9</v>
+        <v>-7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,34 +3735,34 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>11</v>
@@ -3704,13 +3771,13 @@
         <v>30</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW18" t="n">
         <v>12</v>
@@ -3719,19 +3786,19 @@
         <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA18" t="n">
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.467</v>
       </c>
       <c r="H19" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="I19" t="n">
         <v>31.1</v>
       </c>
       <c r="J19" t="n">
-        <v>74.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.415</v>
+        <v>0.416</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.309</v>
+        <v>0.315</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
         <v>29.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.739</v>
+        <v>0.734</v>
       </c>
       <c r="R19" t="n">
         <v>9.9</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.7</v>
       </c>
       <c r="T19" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="U19" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V19" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="W19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z19" t="n">
         <v>24.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>89.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.3</v>
+        <v>-6.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF19" t="n">
         <v>14</v>
       </c>
-      <c r="AF19" t="n">
-        <v>12</v>
-      </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3865,10 +3932,10 @@
         <v>18</v>
       </c>
       <c r="AM19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3877,16 +3944,16 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>10</v>
@@ -3901,13 +3968,13 @@
         <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ19" t="n">
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.667</v>
+        <v>0.647</v>
       </c>
       <c r="H20" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J20" t="n">
-        <v>81.8</v>
+        <v>81.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.444</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P20" t="n">
         <v>20</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="O20" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="P20" t="n">
-        <v>20.8</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0.797</v>
+        <v>0.788</v>
       </c>
       <c r="R20" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S20" t="n">
         <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
         <v>20.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X20" t="n">
         <v>3.8</v>
@@ -4011,28 +4078,28 @@
         <v>19.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC20" t="n">
         <v>3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
         <v>7</v>
       </c>
-      <c r="AG20" t="n">
-        <v>6</v>
-      </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>20</v>
@@ -4047,37 +4114,37 @@
         <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
         <v>18</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
@@ -4241,10 +4308,10 @@
         <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS21" t="n">
         <v>17</v>
@@ -4274,10 +4341,10 @@
         <v>11</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -4396,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
         <v>7</v>
@@ -4417,13 +4484,13 @@
         <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
@@ -4432,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV22" t="n">
         <v>8</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX22" t="n">
         <v>23</v>
@@ -4450,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA22" t="n">
         <v>5</v>
@@ -4459,7 +4526,7 @@
         <v>7</v>
       </c>
       <c r="BC22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -4488,109 +4555,109 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.313</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>34.6</v>
+        <v>34.9</v>
       </c>
       <c r="J23" t="n">
-        <v>79.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.308</v>
+        <v>0.311</v>
       </c>
       <c r="O23" t="n">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="P23" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.706</v>
+        <v>0.696</v>
       </c>
       <c r="R23" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="S23" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T23" t="n">
         <v>43.5</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="AC23" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>27</v>
@@ -4599,43 +4666,43 @@
         <v>29</v>
       </c>
       <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
         <v>19</v>
       </c>
-      <c r="AP23" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
         <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
@@ -4760,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4778,10 +4845,10 @@
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
@@ -4811,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG25" t="n">
         <v>26</v>
       </c>
-      <c r="AG25" t="n">
-        <v>25</v>
-      </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>22</v>
@@ -4954,37 +5021,37 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT25" t="n">
         <v>29</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -5034,43 +5101,43 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.375</v>
+        <v>0.333</v>
       </c>
       <c r="H26" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M26" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.336</v>
+        <v>0.339</v>
       </c>
       <c r="O26" t="n">
         <v>24.1</v>
       </c>
       <c r="P26" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="Q26" t="n">
         <v>0.8090000000000001</v>
@@ -5079,43 +5146,43 @@
         <v>9.9</v>
       </c>
       <c r="S26" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T26" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="U26" t="n">
         <v>16.1</v>
       </c>
       <c r="V26" t="n">
-        <v>15.4</v>
+        <v>16.1</v>
       </c>
       <c r="W26" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.8</v>
+        <v>-4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF26" t="n">
         <v>22</v>
@@ -5124,16 +5191,16 @@
         <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>22</v>
@@ -5142,7 +5209,7 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>1</v>
@@ -5154,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AW26" t="n">
         <v>18</v>
@@ -5175,10 +5242,10 @@
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
         <v>1</v>
@@ -5187,7 +5254,7 @@
         <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5306,19 +5373,19 @@
         <v>2</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>3</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5327,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
@@ -5339,7 +5406,7 @@
         <v>26</v>
       </c>
       <c r="AS27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
@@ -5354,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>-8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
         <v>30</v>
@@ -5488,10 +5555,10 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5524,10 +5591,10 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
@@ -5536,22 +5603,22 @@
         <v>10</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>18</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.529</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,40 +5665,40 @@
         <v>37.3</v>
       </c>
       <c r="J29" t="n">
-        <v>83.5</v>
+        <v>83.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L29" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M29" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.426</v>
+        <v>0.428</v>
       </c>
       <c r="O29" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="P29" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.843</v>
+        <v>0.841</v>
       </c>
       <c r="R29" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>31.1</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="U29" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V29" t="n">
         <v>12.4</v>
@@ -5640,7 +5707,7 @@
         <v>6.8</v>
       </c>
       <c r="X29" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
@@ -5649,49 +5716,49 @@
         <v>21.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.6</v>
+        <v>18.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
         <v>30</v>
@@ -5703,13 +5770,13 @@
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
@@ -5718,10 +5785,10 @@
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>10</v>
@@ -5730,10 +5797,10 @@
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>4</v>
@@ -5852,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,16 +5946,16 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
@@ -5944,133 +6011,133 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>0.471</v>
+        <v>0.438</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
-        <v>82.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.451</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>17.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.348</v>
+        <v>0.336</v>
       </c>
       <c r="O31" t="n">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="P31" t="n">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.776</v>
+        <v>0.783</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="S31" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T31" t="n">
-        <v>43.5</v>
+        <v>43.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V31" t="n">
         <v>15.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB31" t="n">
         <v>101.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR31" t="n">
         <v>4</v>
       </c>
-      <c r="AE31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG31" t="n">
+      <c r="AS31" t="n">
         <v>16</v>
       </c>
-      <c r="AH31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR31" t="n">
+      <c r="AT31" t="n">
         <v>8</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>23</v>
@@ -6079,16 +6146,16 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>6</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-1-2007-08</t>
+          <t>2007-12-01</t>
         </is>
       </c>
     </row>
